--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emore\OneDrive\Proj.WORK\Herramientas_REDLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moree\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538917FB-2503-4117-90B7-5AB4CC8F224F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="21015" yWindow="240" windowWidth="7545" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>Form</t>
   </si>
@@ -38,20 +39,20 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>DRNEDLES#MSYDS</t>
+    <t>ASOCIADO</t>
   </si>
   <si>
-    <t>asociado</t>
+    <t>DRNEDLES#MDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +88,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +146,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -130,8 +156,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,19 +175,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 3" xfId="4"/>
-    <cellStyle name="Normal 2 4" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 5" xfId="10" xr:uid="{D5B36EBD-6F3E-4290-B953-4E2E6FC9EF8B}"/>
+    <cellStyle name="Normal 2 6" xfId="12" xr:uid="{0FD308D7-F7D3-4CDE-9496-6F5C067E3E1E}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="11" xr:uid="{81A46EC9-6D64-46BF-AC01-2319CB4FF65C}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5 2" xfId="9" xr:uid="{EF200243-95D0-4091-8294-1BEEB82B0A2D}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -184,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,6 +309,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -504,318 +588,218 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>15125510</v>
+      <c r="A2" s="18">
+        <v>15303749</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>202010723421</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
-        <v>201847191231</v>
+      <c r="E2" s="16">
+        <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>15303339</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="C3" s="17">
+        <v>202010723421</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>15064364</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>15303071</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17">
+        <v>202010723421</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10">
-        <v>201847191231</v>
+      <c r="E4" s="16">
+        <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>15303302</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="C5" s="17">
+        <v>202010723421</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>15064387</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>15299230</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>202010723421</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
-        <v>201847191231</v>
+      <c r="E6" s="16">
+        <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>20000325</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="C7" s="17">
+        <v>202010723421</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>15064995</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>15064992</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>15087125</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>15066698</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>15066713</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>15203436</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>15087131</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>15103055</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>15075425</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>15203457</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>15087141</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>15074868</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>15074234</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10">
-        <v>201847191231</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -42540,24 +42524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moree\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B76D8-B65C-49BA-A813-23B87EBC4004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00F33E-FE14-44B9-BB64-19C916159502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="930" windowWidth="20535" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="930" windowWidth="20535" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>ASOCIADO</t>
+    <t>DRNEDLES#MDS</t>
   </si>
   <si>
-    <t>DRNEDLES#MDS</t>
+    <t>ASOCIADO</t>
   </si>
 </sst>
 </file>
@@ -86,27 +86,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -157,10 +153,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,24 +167,26 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="17">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -194,12 +195,15 @@
     <cellStyle name="Normal 2 5" xfId="10" xr:uid="{D5B36EBD-6F3E-4290-B953-4E2E6FC9EF8B}"/>
     <cellStyle name="Normal 2 6" xfId="12" xr:uid="{0FD308D7-F7D3-4CDE-9496-6F5C067E3E1E}"/>
     <cellStyle name="Normal 2 7" xfId="13" xr:uid="{EFB7D30E-E4B1-43A6-9A48-A7DAD2B8669E}"/>
+    <cellStyle name="Normal 2 8" xfId="15" xr:uid="{C2C319F4-AEE1-40A4-9CB8-08AE9E3B0B1A}"/>
+    <cellStyle name="Normal 2 8 2" xfId="16" xr:uid="{E67500DC-1E44-4053-9490-F9713D4EA17B}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3 2 2" xfId="11" xr:uid="{81A46EC9-6D64-46BF-AC01-2319CB4FF65C}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 5 2" xfId="9" xr:uid="{EF200243-95D0-4091-8294-1BEEB82B0A2D}"/>
+    <cellStyle name="Normal 6" xfId="14" xr:uid="{0D4CFC2A-89F5-43B0-BE63-3D58FA14A2D3}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -546,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,147 +584,112 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>15331227</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6">
+        <v>15161013</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>202040234744</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="9">
-        <v>202028874291</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moree\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00F33E-FE14-44B9-BB64-19C916159502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E255BF8-B6C7-42D8-98E0-3D8B92B8FDCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="930" windowWidth="20535" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15960" yWindow="780" windowWidth="15720" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>Form</t>
   </si>
@@ -159,22 +159,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -550,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,112 +575,344 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>15161013</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
-        <v>202040234744</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="A2" s="3">
+        <v>15342233</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="3">
+        <v>15343615</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="3">
+        <v>15342181</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="3">
+        <v>15345950</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="3">
+        <v>15345947</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="3">
+        <v>15343558</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="3">
+        <v>15033900</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="3">
+        <v>15345155</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="3">
+        <v>15343596</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="3">
+        <v>15340005</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="3">
+        <v>15339299</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="3">
+        <v>15339372</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="3">
+        <v>15345917</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="3">
+        <v>15340026</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15340094</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15340045</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15341471</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15342269</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15342283</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>15354019</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4">
+        <v>202105040598</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moree\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E255BF8-B6C7-42D8-98E0-3D8B92B8FDCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543CDEBF-DABC-4499-BE9E-6A8F74C69ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15960" yWindow="780" windowWidth="15720" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15960" yWindow="675" windowWidth="15720" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>Form</t>
   </si>
@@ -140,7 +140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -158,8 +158,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,8 +177,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -188,6 +198,7 @@
     <cellStyle name="Normal 2 7" xfId="13" xr:uid="{EFB7D30E-E4B1-43A6-9A48-A7DAD2B8669E}"/>
     <cellStyle name="Normal 2 8" xfId="15" xr:uid="{C2C319F4-AEE1-40A4-9CB8-08AE9E3B0B1A}"/>
     <cellStyle name="Normal 2 8 2" xfId="16" xr:uid="{E67500DC-1E44-4053-9490-F9713D4EA17B}"/>
+    <cellStyle name="Normal 2 9" xfId="17" xr:uid="{1868727B-E296-4621-813F-A5A3A542624F}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3 2 2" xfId="11" xr:uid="{81A46EC9-6D64-46BF-AC01-2319CB4FF65C}"/>
@@ -544,7 +555,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,344 +586,284 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>15342233</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="A2" s="7">
+        <v>15349387</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>15343615</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3" s="7">
+        <v>15348568</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>15342181</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="A4" s="7">
+        <v>15348590</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>15345950</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="A5" s="7">
+        <v>15349270</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>15345947</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="A6" s="7">
+        <v>15349097</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>15343558</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7" s="7">
+        <v>15348605</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>15033900</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8" s="7">
+        <v>15348601</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>15345155</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="A9" s="7">
+        <v>15349263</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>15343596</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="A10" s="7">
+        <v>15345836</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>15340005</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="A11" s="7">
+        <v>15349261</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>15339299</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="A12" s="7">
+        <v>15405445</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>15339372</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="A13" s="7">
+        <v>15349381</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>15345917</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="A14" s="7">
+        <v>15428357</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>15340026</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="A15" s="7">
+        <v>15429457</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7">
+        <v>202060901480</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15340094</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15340045</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>15341471</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>15342269</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15342283</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>15354019</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4">
-        <v>202105040598</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moree\Desktop\super-herramientas-redles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emore\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00F33E-FE14-44B9-BB64-19C916159502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="930" windowWidth="20535" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>TipoEf</t>
+  </si>
+  <si>
+    <t>DRNEDLES#MDS</t>
+  </si>
+  <si>
     <t>Form</t>
   </si>
   <si>
-    <t>TipoEf</t>
-  </si>
-  <si>
     <t>Expediente</t>
   </si>
   <si>
@@ -39,17 +39,14 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>DRNEDLES#MDS</t>
-  </si>
-  <si>
-    <t>ASOCIADO</t>
+    <t>asociado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,53 +56,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,98 +96,65 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 5" xfId="10" xr:uid="{D5B36EBD-6F3E-4290-B953-4E2E6FC9EF8B}"/>
-    <cellStyle name="Normal 2 6" xfId="12" xr:uid="{0FD308D7-F7D3-4CDE-9496-6F5C067E3E1E}"/>
-    <cellStyle name="Normal 2 7" xfId="13" xr:uid="{EFB7D30E-E4B1-43A6-9A48-A7DAD2B8669E}"/>
-    <cellStyle name="Normal 2 8" xfId="15" xr:uid="{C2C319F4-AEE1-40A4-9CB8-08AE9E3B0B1A}"/>
-    <cellStyle name="Normal 2 8 2" xfId="16" xr:uid="{E67500DC-1E44-4053-9490-F9713D4EA17B}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="11" xr:uid="{81A46EC9-6D64-46BF-AC01-2319CB4FF65C}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 5 2" xfId="9" xr:uid="{EF200243-95D0-4091-8294-1BEEB82B0A2D}"/>
-    <cellStyle name="Normal 6" xfId="14" xr:uid="{0D4CFC2A-89F5-43B0-BE63-3D58FA14A2D3}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -230,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,23 +242,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -357,23 +277,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,177 +452,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="2">
+        <v>5009846</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>202030288318</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>15161013</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
-        <v>202040234744</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emore\Desktop\super-herramientas-redles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4F813-AE0A-43B4-99DB-952D8A5DC4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,13 +40,13 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>asociado</t>
+    <t>ASOCIADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -66,16 +67,17 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,42 +88,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,26 +104,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -242,6 +206,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -483,21 +481,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>5009846</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>15290156</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>202030288318</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3">
+        <v>202191832312</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\super-herramientas-redles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\emore\Desktop\super-herramientas-redles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4F813-AE0A-43B4-99DB-952D8A5DC4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>TipoEf</t>
   </si>
@@ -41,13 +40,22 @@
   </si>
   <si>
     <t>ASOCIADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +87,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,18 +120,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,23 +223,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -258,23 +258,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,14 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -498,6 +481,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\super-herramientas-redles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4F813-AE0A-43B4-99DB-952D8A5DC4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
   <si>
     <t>TipoEf</t>
   </si>
@@ -46,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,31 +62,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -104,18 +141,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,27 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,24 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,21 +454,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -481,15 +485,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>15290156</v>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="3">
+        <v>15380859</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>202191832312</v>
+      <c r="C2" s="2">
+        <v>202197851833</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -497,6 +501,197 @@
       <c r="E2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="3">
+        <v>15380866</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="3">
+        <v>15567893</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
+        <v>15135442</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>15569656</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>15568022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>15569769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>15640965</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>15640968</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>15642355</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <v>15339586</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="5">
+        <v>15380872</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="4"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\emore\Desktop\super-herramientas-redles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
   <si>
     <t>TipoEf</t>
   </si>
@@ -41,21 +36,12 @@
   <si>
     <t>ASOCIADO</t>
   </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,39 +62,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -120,14 +141,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -447,7 +468,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -464,15 +485,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>15290156</v>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="3">
+        <v>15380859</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>202191832312</v>
+      <c r="C2" s="2">
+        <v>202197851833</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -481,26 +502,196 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="3">
+        <v>15380866</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>202197851833</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="3">
+        <v>15567893</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="8">
+        <v>15135442</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>15569656</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="4"/>
+      <c r="A7" s="6">
+        <v>15568022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>15569769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>15640965</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>15640968</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>15642355</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <v>15339586</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="5">
+        <v>15380872</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>202197851833</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="4"/>
+      <c r="C14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asignacion.xlsx
+++ b/asignacion.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emore\Desktop\super-herramientas-redles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="585" windowWidth="15495" windowHeight="10185"/>
   </bookViews>
@@ -40,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +72,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Open Sans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -82,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,40 +107,10 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -141,16 +121,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +224,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,21 +435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -485,14 +466,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
         <v>15380859</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>202197851833</v>
       </c>
       <c r="D2" t="s">
@@ -502,14 +483,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
         <v>15380866</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>202197851833</v>
       </c>
       <c r="D3" t="s">
@@ -519,167 +500,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>15380872</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
         <v>15567893</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>15339586</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
         <v>15135442</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
         <v>15569656</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
         <v>15568022</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
         <v>15569769</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
         <v>15640965</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
         <v>15640968</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>202197851833</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
         <v>15642355</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7">
-        <v>15339586</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>202197851833</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="5">
-        <v>15380872</v>
-      </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>202197851833</v>
       </c>
       <c r="D13" t="s">
@@ -690,7 +671,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="C14" s="2"/>
     </row>
   </sheetData>
